--- a/Testing/TestCases_Search.xlsx
+++ b/Testing/TestCases_Search.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ITI 9 months\Project Mangement M.H\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arsan\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9264"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7632"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -308,44 +308,46 @@
     <t>SRS_202</t>
   </si>
   <si>
-    <t>SRS_203, SRS_204</t>
-  </si>
-  <si>
-    <t>SRS_204</t>
-  </si>
-  <si>
-    <t>SRS_205, SRS_206, SRS_207</t>
-  </si>
-  <si>
     <t>SRS_209</t>
   </si>
   <si>
     <t>SRS_208</t>
   </si>
   <si>
-    <t>SRS_207</t>
-  </si>
-  <si>
-    <t>SRS_210, SRS_211, SRS_212, SRS_213, SRS_214</t>
-  </si>
-  <si>
-    <t>SRS_211, SRS_212, SRS_213, SRS_214</t>
-  </si>
-  <si>
-    <t>SRS_215</t>
-  </si>
-  <si>
     <t>SRS_216</t>
+  </si>
+  <si>
+    <t>SRS_203, SRS_204,
+SRS_205</t>
+  </si>
+  <si>
+    <t>SRS_204,
+SRS_205</t>
+  </si>
+  <si>
+    <t>SRS_206, SRS_207, SRS_208</t>
+  </si>
+  <si>
+    <t>SRS_210</t>
+  </si>
+  <si>
+    <t>SRS_211, SRS_212, SRS_213, SRS_214, SRS_215</t>
+  </si>
+  <si>
+    <t>SRS_212, SRS_213, SRS_214, SRS_215</t>
+  </si>
+  <si>
+    <t>SRS_217</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -773,11 +775,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.44140625" customWidth="1"/>
@@ -790,7 +792,7 @@
     <col min="9" max="9" width="15.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16.2" thickBot="1">
+    <row r="1" spans="1:9" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>43</v>
       </c>
@@ -819,7 +821,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="106.2" thickBot="1">
+    <row r="2" spans="1:9" ht="162.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>70</v>
       </c>
@@ -848,7 +850,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="106.2" thickBot="1">
+    <row r="3" spans="1:9" ht="162.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>71</v>
       </c>
@@ -877,7 +879,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="106.2" thickBot="1">
+    <row r="4" spans="1:9" ht="162.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>72</v>
       </c>
@@ -906,9 +908,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="106.2" thickBot="1">
+    <row r="5" spans="1:9" ht="162.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>58</v>
@@ -935,9 +937,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="106.2" thickBot="1">
+    <row r="6" spans="1:9" ht="162.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>59</v>
@@ -964,9 +966,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="106.2" thickBot="1">
+    <row r="7" spans="1:9" ht="162.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>60</v>
@@ -993,9 +995,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="106.2" thickBot="1">
+    <row r="8" spans="1:9" ht="162.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>61</v>
@@ -1022,9 +1024,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="106.2" thickBot="1">
+    <row r="9" spans="1:9" ht="162.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>62</v>
@@ -1051,9 +1053,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="106.2" thickBot="1">
+    <row r="10" spans="1:9" ht="162.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>63</v>
@@ -1080,9 +1082,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="106.2" thickBot="1">
+    <row r="11" spans="1:9" ht="162.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>64</v>
@@ -1109,9 +1111,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="106.2" thickBot="1">
+    <row r="12" spans="1:9" ht="162.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>65</v>
@@ -1138,9 +1140,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="106.2" thickBot="1">
+    <row r="13" spans="1:9" ht="162.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>66</v>
@@ -1167,9 +1169,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="106.2" thickBot="1">
+    <row r="14" spans="1:9" ht="162.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>67</v>
@@ -1196,9 +1198,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="106.2" thickBot="1">
+    <row r="15" spans="1:9" ht="162.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>68</v>
@@ -1225,7 +1227,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="106.2" thickBot="1">
+    <row r="16" spans="1:9" ht="162.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>82</v>
       </c>

--- a/Testing/TestCases_Search.xlsx
+++ b/Testing/TestCases_Search.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arsan\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ebrahem\ITI45\Car-Purchasing\Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8E373F1-387A-4E83-9321-CBD605B2A688}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7632"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="118">
   <si>
     <t>Test Title</t>
   </si>
@@ -89,9 +90,6 @@
 5. Enter valid data in other fields </t>
   </si>
   <si>
-    <t xml:space="preserve"> Car shouldn't appear </t>
-  </si>
-  <si>
     <t>Validate case-insensitive Car Name search</t>
   </si>
   <si>
@@ -200,63 +198,9 @@
     <t>" -50000 "</t>
   </si>
   <si>
-    <t>Validate valid Address input</t>
-  </si>
-  <si>
     <t xml:space="preserve">SRS ID </t>
   </si>
   <si>
-    <t xml:space="preserve">1. Open Chrome Browser 
-2. Navigate To Car_Purchasing Website
-3. Click Search 
-4. Enter in Address field " 12 El-Tahrir St, Downtown, Cairo " 
-5. Enter valid data in other fields </t>
-  </si>
-  <si>
-    <t>12 El-Tahrir St, Downtown, Cairo</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Validate Address with invalid characters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Open Chrome Browser 
-2. Navigate To Car_Purchasing Website
-3. Click Search 
-4. Enter in Address field " 12 @El-Tahrir " 
-5. Enter valid data in other fields </t>
-  </si>
-  <si>
-    <t>12 @El-Tahrir</t>
-  </si>
-  <si>
-    <t>Validate combined search with multiple filters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Open Chrome Browser 
-2. Navigate To Car_Purchasing Website
-3. Click Search 
-5. Enter valid data in all fields </t>
-  </si>
-  <si>
-    <t>"Toyota", 2015, 200000, "5 El-Malek St, Zamalek, Cairo"</t>
-  </si>
-  <si>
-    <t>Validate no result message</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Open Chrome Browser 
-2. Navigate To Car_Purchasing Website
-3. Click Search 
-5. Enter invalid data in all fields </t>
-  </si>
-  <si>
-    <t>"RandomName", 2020, 10000000, "Unknown Street"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Error message should appear 
-No cars found matching your filters." is displayed </t>
-  </si>
-  <si>
     <t xml:space="preserve"> TC_Search_002</t>
   </si>
   <si>
@@ -299,55 +243,277 @@
     <t xml:space="preserve"> TC_Search_015</t>
   </si>
   <si>
-    <t>SRS_200, SRS_201</t>
-  </si>
-  <si>
-    <t>SRS_201</t>
-  </si>
-  <si>
-    <t>SRS_202</t>
-  </si>
-  <si>
-    <t>SRS_209</t>
-  </si>
-  <si>
-    <t>SRS_208</t>
-  </si>
-  <si>
-    <t>SRS_216</t>
-  </si>
-  <si>
-    <t>SRS_203, SRS_204,
-SRS_205</t>
-  </si>
-  <si>
-    <t>SRS_204,
-SRS_205</t>
-  </si>
-  <si>
-    <t>SRS_206, SRS_207, SRS_208</t>
-  </si>
-  <si>
-    <t>SRS_210</t>
-  </si>
-  <si>
-    <t>SRS_211, SRS_212, SRS_213, SRS_214, SRS_215</t>
-  </si>
-  <si>
-    <t>SRS_212, SRS_213, SRS_214, SRS_215</t>
-  </si>
-  <si>
-    <t>SRS_217</t>
+    <t>SRS_181, SRS_182</t>
+  </si>
+  <si>
+    <t>SRS_182</t>
+  </si>
+  <si>
+    <t>SRS_183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1- User should open the website 
+from the PC
+2-Car purchasing registration page must be accessible.
+3-Chrome version 28</t>
+  </si>
+  <si>
+    <t>Mazda#4</t>
+  </si>
+  <si>
+    <t>Validate Car Name input with invalid input special chars</t>
+  </si>
+  <si>
+    <t>SRS_184,
+SRS_186</t>
+  </si>
+  <si>
+    <t>SRS_186</t>
+  </si>
+  <si>
+    <t>SRS_185</t>
+  </si>
+  <si>
+    <t>SRS_190</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TC_Search_016</t>
+  </si>
+  <si>
+    <t>SRS_199</t>
+  </si>
+  <si>
+    <t>Validate car name with 
+max lenghth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Open Chrome Browser 
+2. Navigate To Car_Purchasing Website
+3. Click Search 
+4. Enter in car name field 
+"Lamborghini Aventador Coupe"
+5. Enter valid data in other fields </t>
+  </si>
+  <si>
+    <t>Lamborghini Aventador Coupe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1- User should open the website 
+from the PC
+2-Car purchasing registration page must be accessible.
+3-Chrome version 29</t>
+  </si>
+  <si>
+    <t>SRS_200</t>
+  </si>
+  <si>
+    <t>Validate car name with 
+min lenghth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Open Chrome Browser 
+2. Navigate To Car_Purchasing Website
+3. Click Search 
+4. Enter in car name field "BMW"
+5. Enter valid data in other fields </t>
+  </si>
+  <si>
+    <t>BMW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1- User should open the website 
+from the PC
+2-Car purchasing registration page must be accessible.
+3-Chrome version 30</t>
+  </si>
+  <si>
+    <t>Insert invalid input in 
+car name field with more
+than max lenghth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Open Chrome Browser 
+2. Navigate To Car_Purchasing Website
+3. Click Search 
+4. Enter in car name field 
+"Chevrolet Silverado 3500 HD Crew Cab"
+5. Enter valid data in other fields </t>
+  </si>
+  <si>
+    <t>Chevrolet Silverado 3500 HD Crew Cab</t>
+  </si>
+  <si>
+    <t>Car name field turn to red</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1- User should open the website 
+from the PC
+2-Car purchasing registration page must be accessible.
+3-Chrome version 31</t>
+  </si>
+  <si>
+    <t>Insert invalid input in 
+car name field with more
+than min lenghth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Open Chrome Browser 
+2. Navigate To Car_Purchasing Website
+3. Click Search 
+4. Enter in car name field "BM"
+5. Enter valid data in other fields </t>
+  </si>
+  <si>
+    <t>BM</t>
+  </si>
+  <si>
+    <t>SRS_187,
+SRS_188,
+SRS_189,
+SRS_190</t>
+  </si>
+  <si>
+    <t>SRS_191</t>
+  </si>
+  <si>
+    <t>Car price field turn to red</t>
+  </si>
+  <si>
+    <t>SRS_188,
+SRS_192</t>
+  </si>
+  <si>
+    <t>Car manufacturing year field turn to red</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TC_Search_017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TC_Search_018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TC_Search_019</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TC_Search_020</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TC_Search_021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1- User should open the website 
+from the PC
+2-Car purchasing registration page must be accessible.
+3-Chrome version 32</t>
+  </si>
+  <si>
+    <t>SRS_193,
+SRS_194</t>
+  </si>
+  <si>
+    <t>Insert valid city name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Open Chrome Browser 
+2. Navigate To Car_Purchasing Website
+3. Click Search 
+4. Enter in car model field "Giza"
+5. Enter valid data in other fields </t>
+  </si>
+  <si>
+    <t>"Giza"</t>
+  </si>
+  <si>
+    <t>"New Giza"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Open Chrome Browser 
+2. Navigate To Car_Purchasing Website
+3. Click Search 
+4. Enter in car model field "New Giza"
+5. Enter valid data in other fields </t>
+  </si>
+  <si>
+    <t>Insert valid city name
+with space</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+SRS_194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+SRS_195</t>
+  </si>
+  <si>
+    <t>Insert invalid city name
+with numbers</t>
+  </si>
+  <si>
+    <t>"New Giza55"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> City field turn to red</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+SRS_196</t>
+  </si>
+  <si>
+    <t>Insert valid city name
+with comma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Open Chrome Browser 
+2. Navigate To Car_Purchasing Website
+3. Click Search 
+4. Enter in car model field "New, Giza"
+5. Enter valid data in other fields </t>
+  </si>
+  <si>
+    <t>"New, Giza55"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+SRS_201</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TC_Search_022</t>
+  </si>
+  <si>
+    <t>Insert full valid info
+about car with no match 
+in DB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Open Chrome Browser 
+2. Navigate To Car_Purchasing Website
+3. Click Search 
+4. Enter valid data in other fields </t>
+  </si>
+  <si>
+    <t>"BMW"
+"2005"
+"200,000"
+"cairo"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"No cars found matching your filter" </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -369,6 +535,12 @@
       <sz val="12"/>
       <color theme="0"/>
       <name val="Montserrat"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -463,8 +635,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -772,20 +943,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.109375" customWidth="1"/>
     <col min="2" max="2" width="16.44140625" customWidth="1"/>
     <col min="3" max="3" width="27.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.21875" style="9" customWidth="1"/>
+    <col min="4" max="4" width="27.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.21875" style="8" customWidth="1"/>
     <col min="6" max="6" width="23.44140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="27.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.33203125" bestFit="1" customWidth="1"/>
@@ -793,470 +964,666 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="162.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="162.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="162.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="162.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+      <c r="C4" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="162.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="162.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="8" t="s">
+      <c r="G6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="162.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="162.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="162.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="162.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="162.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
+      <c r="E10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="4">
+        <v>2015</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="162.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="4">
+        <v>1899</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="162.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="4">
+        <v>2026</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="162.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="162.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="4">
+        <v>100000</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="162.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="162.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="9">
+        <v>100000</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="162.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="162.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" s="7"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="162.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D19" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="162.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="8" t="s">
+      <c r="E19" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G19" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="162.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="5">
-        <v>2015</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="162.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="5">
-        <v>1899</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="162.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="5">
-        <v>2026</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="162.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="162.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" s="5">
-        <v>100000</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="162.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="162.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="F11" s="10">
-        <v>100000</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="162.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="162.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="162.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="162.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="162.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I16" s="6" t="s">
+      <c r="H19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="162.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="162.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="162.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="162.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I23" s="5" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Testing/TestCases_Search.xlsx
+++ b/Testing/TestCases_Search.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ebrahem\ITI45\Car-Purchasing\Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8E373F1-387A-4E83-9321-CBD605B2A688}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87755963-9790-4FE6-96DF-23FE63272A30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="122">
   <si>
     <t>Test Title</t>
   </si>
@@ -444,10 +444,6 @@
   </si>
   <si>
     <t xml:space="preserve">
-SRS_194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
 SRS_195</t>
   </si>
   <si>
@@ -504,6 +500,32 @@
   </si>
   <si>
     <t xml:space="preserve">"No cars found matching your filter" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+SRS_198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Open Chrome Browser 
+2. Navigate To Car_Purchasing Website
+3. Click Search 
+4. Enter valid data in all fields </t>
+  </si>
+  <si>
+    <t>Insert full valid info
+in all search fields about
+car match in DB</t>
+  </si>
+  <si>
+    <t>"KIA"
+"2005"
+"200,000"
+"cairo"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+SRS_194,
+SRS_197</t>
   </si>
 </sst>
 </file>
@@ -946,8 +968,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1456,20 +1478,28 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="162.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="1"/>
+    <row r="18" spans="1:9" ht="162.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="B18" s="1" t="s">
         <v>90</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E18" s="7"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="4"/>
+        <v>71</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="H18" s="4" t="s">
         <v>7</v>
       </c>
@@ -1479,22 +1509,22 @@
     </row>
     <row r="19" spans="1:9" ht="162.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>91</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>71</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>19</v>
@@ -1508,13 +1538,13 @@
     </row>
     <row r="20" spans="1:9" ht="162.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>92</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>71</v>
@@ -1523,10 +1553,10 @@
         <v>101</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>19</v>
+        <v>106</v>
       </c>
       <c r="H20" s="4" t="s">
         <v>7</v>
@@ -1537,25 +1567,25 @@
     </row>
     <row r="21" spans="1:9" ht="162.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>93</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>107</v>
+        <v>19</v>
       </c>
       <c r="H21" s="4" t="s">
         <v>7</v>
@@ -1566,25 +1596,25 @@
     </row>
     <row r="22" spans="1:9" ht="162.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>94</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D22" s="7" t="s">
         <v>95</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>19</v>
+        <v>116</v>
       </c>
       <c r="H22" s="4" t="s">
         <v>7</v>
@@ -1595,25 +1625,25 @@
     </row>
     <row r="23" spans="1:9" ht="162.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>113</v>
-      </c>
       <c r="C23" s="4" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>95</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>117</v>
+        <v>19</v>
       </c>
       <c r="H23" s="4" t="s">
         <v>7</v>

--- a/Testing/TestCases_Search.xlsx
+++ b/Testing/TestCases_Search.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ebrahem\ITI45\Car-Purchasing\Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87755963-9790-4FE6-96DF-23FE63272A30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D1923D9-B929-4E96-A619-059A6422609D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="125">
   <si>
     <t>Test Title</t>
   </si>
@@ -46,9 +46,6 @@
   </si>
   <si>
     <t>Status</t>
-  </si>
-  <si>
-    <t>Pending</t>
   </si>
   <si>
     <t>TC ID</t>
@@ -113,9 +110,6 @@
 5. Enter valid data in other fields </t>
   </si>
   <si>
-    <t>TOYOTA</t>
-  </si>
-  <si>
     <t>Mazda 3</t>
   </si>
   <si>
@@ -526,6 +520,21 @@
     <t xml:space="preserve">
 SRS_194,
 SRS_197</t>
+  </si>
+  <si>
+    <t>Passed</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Car Add appear  </t>
+  </si>
+  <si>
+    <t>TOYOTA Corolla</t>
+  </si>
+  <si>
+    <t>Blocked</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -565,7 +574,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -581,6 +590,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -657,7 +678,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -671,9 +692,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -684,6 +702,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="6" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -968,8 +992,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -977,8 +1001,8 @@
     <col min="1" max="1" width="12.109375" customWidth="1"/>
     <col min="2" max="2" width="16.44140625" customWidth="1"/>
     <col min="3" max="3" width="27.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.21875" style="8" customWidth="1"/>
+    <col min="4" max="4" width="27.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.21875" style="7" customWidth="1"/>
     <col min="6" max="6" width="23.44140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="27.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.33203125" bestFit="1" customWidth="1"/>
@@ -987,18 +1011,18 @@
   <sheetData>
     <row r="1" spans="1:9" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="3" t="s">
@@ -1016,640 +1040,640 @@
     </row>
     <row r="2" spans="1:9" ht="162.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="E2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="7" t="s">
+      <c r="G2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>14</v>
-      </c>
       <c r="H2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>7</v>
+        <v>121</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="162.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>16</v>
-      </c>
       <c r="F3" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>7</v>
+        <v>121</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="162.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>16</v>
+      <c r="E4" s="6" t="s">
+        <v>15</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>7</v>
+        <v>78</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="162.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="F5" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>19</v>
-      </c>
       <c r="H5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>7</v>
+        <v>121</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="162.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C6" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>70</v>
-      </c>
       <c r="G6" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>7</v>
+        <v>121</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="162.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" s="4" t="s">
+      <c r="F7" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>75</v>
-      </c>
       <c r="G7" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>7</v>
+        <v>121</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="162.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="E8" s="7" t="s">
+      <c r="G8" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>80</v>
-      </c>
       <c r="H8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>7</v>
+        <v>124</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="162.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C9" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>84</v>
-      </c>
       <c r="G9" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>7</v>
+        <v>78</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="162.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>20</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="F10" s="4">
         <v>2015</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>7</v>
+        <v>18</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="162.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>25</v>
+        <v>22</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="F11" s="4">
         <v>1899</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>7</v>
+        <v>87</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="162.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>27</v>
+        <v>24</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="F12" s="4">
         <v>2026</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>7</v>
+        <v>87</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="162.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C13" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>30</v>
-      </c>
       <c r="G13" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>7</v>
+        <v>87</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="162.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>32</v>
+        <v>29</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="F14" s="4">
         <v>100000</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>7</v>
+        <v>18</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="162.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C15" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>35</v>
-      </c>
       <c r="G15" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>7</v>
+        <v>85</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="162.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F16" s="9">
+        <v>34</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16" s="8">
         <v>100000</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>7</v>
+        <v>85</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="162.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C17" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>40</v>
-      </c>
       <c r="G17" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>7</v>
+        <v>85</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="162.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C18" s="4" t="s">
+      <c r="F18" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="D18" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>99</v>
-      </c>
       <c r="G18" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>7</v>
+        <v>18</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="162.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="F19" s="9" t="s">
         <v>100</v>
       </c>
+      <c r="D19" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>98</v>
+      </c>
       <c r="G19" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>7</v>
+        <v>18</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="162.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C20" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="G20" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="D20" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>106</v>
-      </c>
       <c r="H20" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>7</v>
+        <v>104</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="162.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E21" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C21" s="4" t="s">
+      <c r="F21" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="D21" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>110</v>
-      </c>
       <c r="G21" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>7</v>
+        <v>18</v>
+      </c>
+      <c r="I21" s="9" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="162.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C22" s="4" t="s">
+      <c r="D22" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="F22" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="D22" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="E22" s="7" t="s">
+      <c r="G22" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="F22" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>116</v>
-      </c>
       <c r="H22" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I22" s="5" t="s">
-        <v>7</v>
+        <v>114</v>
+      </c>
+      <c r="I22" s="9" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="162.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="E23" s="7" t="s">
+      <c r="D23" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F23" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="F23" s="9" t="s">
-        <v>120</v>
-      </c>
       <c r="G23" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I23" s="5" t="s">
-        <v>7</v>
+        <v>18</v>
+      </c>
+      <c r="I23" s="9" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
